--- a/Datasets/Dataset1.xlsx
+++ b/Datasets/Dataset1.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\CHIME modelling\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5194D1-D5DD-4EF8-80D0-D947C4064063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D3CAF-A0AB-4F02-BCBB-62277D40D2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="2460" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="4140" windowWidth="9465" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>States</t>
   </si>
@@ -142,16 +150,13 @@
     <t>hospitalization</t>
   </si>
   <si>
-    <t>social_distancing_%</t>
-  </si>
-  <si>
     <t>doubling_time</t>
   </si>
   <si>
-    <t>average_stay_len</t>
-  </si>
-  <si>
-    <t>infectious_days</t>
+    <t>Ventilator_capacity</t>
+  </si>
+  <si>
+    <t>ICU_beds_capacity</t>
   </si>
 </sst>
 </file>
@@ -418,7 +423,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -440,17 +445,16 @@
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -465,6 +469,12 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -479,6 +489,12 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -493,6 +509,12 @@
       <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -507,6 +529,12 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -521,6 +549,12 @@
       <c r="D6">
         <v>6</v>
       </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -535,6 +569,12 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -549,6 +589,12 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -563,6 +609,12 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -576,6 +628,12 @@
       </c>
       <c r="D10">
         <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -591,6 +649,12 @@
       <c r="D11">
         <v>6</v>
       </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -605,6 +669,12 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -619,6 +689,12 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -633,6 +709,12 @@
       <c r="D14">
         <v>11</v>
       </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -647,6 +729,12 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -661,8 +749,14 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -675,8 +769,14 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -689,8 +789,14 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -703,8 +809,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -717,8 +829,14 @@
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -731,8 +849,14 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -745,8 +869,14 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -759,8 +889,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -773,8 +909,14 @@
       <c r="D24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -787,8 +929,14 @@
       <c r="D25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -801,8 +949,14 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -815,8 +969,14 @@
       <c r="D27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -829,8 +989,14 @@
       <c r="D28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -843,8 +1009,14 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -857,8 +1029,14 @@
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -871,8 +1049,14 @@
       <c r="D31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -885,8 +1069,14 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -899,8 +1089,14 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -913,8 +1109,14 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -927,8 +1129,14 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -941,8 +1149,14 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -955,8 +1169,14 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -969,17 +1189,23 @@
       <c r="D38">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
